--- a/LB_model_expcoefandCIs.xlsx
+++ b/LB_model_expcoefandCIs.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,6 +403,16 @@
           <t>p</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Effects</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -411,28 +421,33 @@
         </is>
       </c>
       <c r="B2">
-        <v>6.451480008057634</v>
+        <v>7.257485095095481</v>
       </c>
       <c r="C2">
-        <v>0.6241637264317066</v>
+        <v>1.022800020422908</v>
       </c>
       <c r="D2">
         <v>0.95</v>
       </c>
       <c r="E2">
-        <v>5.314417976730231</v>
+        <v>5.477543925464971</v>
       </c>
       <c r="F2">
-        <v>7.831825512523122</v>
+        <v>9.615822460257492</v>
       </c>
       <c r="G2">
-        <v>19.26987321728663</v>
+        <v>14.06391992971115</v>
       </c>
       <c r="H2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I2">
-        <v>3.987252760720475e-26</v>
+        <v>1.563719471015459e-21</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -442,28 +457,33 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.034552192449033</v>
+        <v>1.045598804591539</v>
       </c>
       <c r="C3">
-        <v>0.1009055609491151</v>
+        <v>0.0883164304694402</v>
       </c>
       <c r="D3">
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>0.8508692264935472</v>
+        <v>0.8833357303754301</v>
       </c>
       <c r="F3">
-        <v>1.257888057970819</v>
+        <v>1.237668558588248</v>
       </c>
       <c r="G3">
-        <v>0.3482698123019247</v>
+        <v>0.5279083251860176</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>0.7289671142742183</v>
+        <v>0.5993334199834657</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -473,28 +493,97 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.08897125963594</v>
+        <v>1.092123341651569</v>
       </c>
       <c r="C4">
-        <v>0.1054445574692217</v>
+        <v>0.09072848858813887</v>
       </c>
       <c r="D4">
         <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.8968943282076617</v>
+        <v>0.9252036596393727</v>
       </c>
       <c r="F4">
-        <v>1.322182967399165</v>
+        <v>1.289157669182908</v>
       </c>
       <c r="G4">
-        <v>0.8802424886251627</v>
+        <v>1.060770255936906</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>0.3825581184513267</v>
+        <v>0.2926607627819782</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SD (Intercept)</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.2671636079563624</v>
+      </c>
+      <c r="C5">
+        <v>0.1270027525146346</v>
+      </c>
+      <c r="D5">
+        <v>0.95</v>
+      </c>
+      <c r="E5">
+        <v>0.1052295798875997</v>
+      </c>
+      <c r="F5">
+        <v>0.6782921065778384</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Seeded_plates_OD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SD (Observations)</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>0.6899517828073038</v>
+      </c>
+      <c r="C6">
+        <v>0.06041702912043295</v>
+      </c>
+      <c r="D6">
+        <v>0.95</v>
+      </c>
+      <c r="E6">
+        <v>0.5811410440660544</v>
+      </c>
+      <c r="F6">
+        <v>0.8191358491362546</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/LB_model_expcoefandCIs.xlsx
+++ b/LB_model_expcoefandCIs.xlsx
@@ -421,28 +421,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>7.257485095095481</v>
+        <v>7.316037846847253</v>
       </c>
       <c r="C2">
-        <v>1.022800020422908</v>
+        <v>1.122062060967163</v>
       </c>
       <c r="D2">
         <v>0.95</v>
       </c>
       <c r="E2">
-        <v>5.477543925464971</v>
+        <v>5.386282555067619</v>
       </c>
       <c r="F2">
-        <v>9.615822460257492</v>
+        <v>9.937170809233468</v>
       </c>
       <c r="G2">
-        <v>14.06391992971115</v>
+        <v>12.97559192455099</v>
       </c>
       <c r="H2">
         <v>66</v>
       </c>
       <c r="I2">
-        <v>1.563719471015459e-21</v>
+        <v>7.912290867839639e-20</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.045598804591539</v>
+        <v>1.045915055084042</v>
       </c>
       <c r="C3">
-        <v>0.0883164304694402</v>
+        <v>0.08885023846131529</v>
       </c>
       <c r="D3">
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>0.8833357303754301</v>
+        <v>0.8827479859358563</v>
       </c>
       <c r="F3">
-        <v>1.237668558588248</v>
+        <v>1.239241912618699</v>
       </c>
       <c r="G3">
-        <v>0.5279083251860176</v>
+        <v>0.528455292298047</v>
       </c>
       <c r="H3">
         <v>66</v>
       </c>
       <c r="I3">
-        <v>0.5993334199834657</v>
+        <v>0.5989559441526773</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -493,28 +493,28 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.092123341651569</v>
+        <v>1.093054713357046</v>
       </c>
       <c r="C4">
-        <v>0.09072848858813887</v>
+        <v>0.09280996448689283</v>
       </c>
       <c r="D4">
         <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.9252036596393727</v>
+        <v>0.9226091190455641</v>
       </c>
       <c r="F4">
-        <v>1.289157669182908</v>
+        <v>1.294988941392687</v>
       </c>
       <c r="G4">
-        <v>1.060770255936906</v>
+        <v>1.047903933214989</v>
       </c>
       <c r="H4">
         <v>66</v>
       </c>
       <c r="I4">
-        <v>0.2926607627819782</v>
+        <v>0.2985052528586168</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -529,19 +529,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2671636079563624</v>
+        <v>0.3017382852802242</v>
       </c>
       <c r="C5">
-        <v>0.1270027525146346</v>
+        <v>0.1481945258654814</v>
       </c>
       <c r="D5">
         <v>0.95</v>
       </c>
       <c r="E5">
-        <v>0.1052295798875997</v>
+        <v>0.1152324302307718</v>
       </c>
       <c r="F5">
-        <v>0.6782921065778384</v>
+        <v>0.7901073736058107</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -561,19 +561,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.6899517828073038</v>
+        <v>0.7013382174484304</v>
       </c>
       <c r="C6">
-        <v>0.06041702912043295</v>
+        <v>0.06242324669850934</v>
       </c>
       <c r="D6">
         <v>0.95</v>
       </c>
       <c r="E6">
-        <v>0.5811410440660544</v>
+        <v>0.5890681431866021</v>
       </c>
       <c r="F6">
-        <v>0.8191358491362546</v>
+        <v>0.835005764516327</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
